--- a/data/trans_orig/P57b3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83205428-DC9E-4316-8CA3-168CFA764EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3245AB-A866-4FD1-9E45-86F7AFC8EF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0E78839-09F3-46AB-8665-4017B691D5D6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54DEA113-CB70-42C1-8D5F-C458B97A78C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>97,3%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>11,5%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>81,49%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>17,16%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>83,76%</t>
   </si>
   <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,103 @@
     <t>15,72%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>78,25%</t>
   </si>
   <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>80,69%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>11,56%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>88,44%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594277C7-71C3-4297-ABDA-F373870E02A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A696C8E-4D38-47B3-91E2-DE89F71BB9D3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1942,7 +1936,7 @@
         <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>783</v>
@@ -1951,13 +1945,13 @@
         <v>497620</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1243</v>
@@ -1966,13 +1960,13 @@
         <v>949472</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,43 +1981,43 @@
         <v>2931242</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4572</v>
       </c>
       <c r="I23" s="7">
-        <v>3303869</v>
+        <v>3303868</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>7486</v>
       </c>
       <c r="N23" s="7">
-        <v>6235112</v>
+        <v>6235111</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,7 +2044,7 @@
         <v>5355</v>
       </c>
       <c r="I24" s="7">
-        <v>3801489</v>
+        <v>3801488</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2065,7 +2059,7 @@
         <v>8729</v>
       </c>
       <c r="N24" s="7">
-        <v>7184584</v>
+        <v>7184583</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57b3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3245AB-A866-4FD1-9E45-86F7AFC8EF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA9D929-DF8F-4899-AE4F-44D07A797D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54DEA113-CB70-42C1-8D5F-C458B97A78C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5AAD9D5-113E-4D3A-A867-0FA23CB87A62}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A696C8E-4D38-47B3-91E2-DE89F71BB9D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60786221-E7D7-4DBC-B721-6BCB404831C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57b3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA9D929-DF8F-4899-AE4F-44D07A797D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC4EAFC-FDBC-4887-9FEB-125B1B2B3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5AAD9D5-113E-4D3A-A867-0FA23CB87A62}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{347E69D2-F31A-4231-8929-2B11ECF8B968}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>97,3%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>7,26%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>11,5%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>81,49%</t>
   </si>
   <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>17,16%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>84,7%</t>
   </si>
   <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>83,76%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,103 +365,109 @@
     <t>15,72%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>78,25%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>80,69%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,56%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>88,44%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>86,78%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60786221-E7D7-4DBC-B721-6BCB404831C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57179790-D263-411F-B88D-492F530125C4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,7 +1942,7 @@
         <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>783</v>
@@ -1945,13 +1951,13 @@
         <v>497620</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1243</v>
@@ -1960,13 +1966,13 @@
         <v>949472</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,43 +1987,43 @@
         <v>2931242</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>4572</v>
       </c>
       <c r="I23" s="7">
-        <v>3303868</v>
+        <v>3303869</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>7486</v>
       </c>
       <c r="N23" s="7">
-        <v>6235111</v>
+        <v>6235112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2050,7 @@
         <v>5355</v>
       </c>
       <c r="I24" s="7">
-        <v>3801488</v>
+        <v>3801489</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2065,7 @@
         <v>8729</v>
       </c>
       <c r="N24" s="7">
-        <v>7184583</v>
+        <v>7184584</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57b3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57b3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC4EAFC-FDBC-4887-9FEB-125B1B2B3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B149CC16-4AC0-46CB-BEFB-2BAFDC25A757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{347E69D2-F31A-4231-8929-2B11ECF8B968}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{708D1704-F33D-4E46-BED2-255A8A2273B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Población con sentimiento de soledad al menos buena parte del tiempo en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -65,409 +65,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57179790-D263-411F-B88D-492F530125C4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C3852-EA1B-43E4-BD82-B4F5EF45F60B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>10215</v>
+        <v>9376</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>27098</v>
+        <v>23572</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1072,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>37313</v>
+        <v>32948</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1093,7 @@
         <v>166</v>
       </c>
       <c r="D5" s="7">
-        <v>367464</v>
+        <v>390611</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1108,7 @@
         <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>327859</v>
+        <v>289628</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1123,7 @@
         <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>695323</v>
+        <v>680239</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1144,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1159,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1174,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1197,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>31113</v>
+        <v>28230</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,31 +1212,31 @@
         <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>43631</v>
+        <v>37779</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
       </c>
       <c r="N7" s="7">
-        <v>74743</v>
+        <v>66009</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,46 +1248,46 @@
         <v>276</v>
       </c>
       <c r="D8" s="7">
-        <v>397283</v>
+        <v>395317</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>417</v>
       </c>
       <c r="I8" s="7">
-        <v>454946</v>
+        <v>473725</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>693</v>
       </c>
       <c r="N8" s="7">
-        <v>852230</v>
+        <v>869042</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1260,7 +1299,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1314,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1329,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1304,7 +1343,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1313,46 +1352,46 @@
         <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>63972</v>
+        <v>58822</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>44346</v>
+        <v>38913</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>108318</v>
+        <v>97735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,46 +1403,46 @@
         <v>478</v>
       </c>
       <c r="D11" s="7">
-        <v>492107</v>
+        <v>476491</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>782</v>
       </c>
       <c r="I11" s="7">
-        <v>537381</v>
+        <v>501882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>1260</v>
       </c>
       <c r="N11" s="7">
-        <v>1029488</v>
+        <v>978373</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,7 +1454,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556079</v>
+        <v>535313</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1469,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581727</v>
+        <v>540795</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1484,7 @@
         <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>1137806</v>
+        <v>1076108</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1498,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1468,46 +1507,46 @@
         <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>133981</v>
+        <v>320013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
       </c>
       <c r="I13" s="7">
-        <v>68616</v>
+        <v>61051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
       </c>
       <c r="N13" s="7">
-        <v>202597</v>
+        <v>381065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,46 +1558,46 @@
         <v>585</v>
       </c>
       <c r="D14" s="7">
-        <v>590009</v>
+        <v>567773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>1031</v>
       </c>
       <c r="I14" s="7">
-        <v>677501</v>
+        <v>650764</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1616</v>
       </c>
       <c r="N14" s="7">
-        <v>1267510</v>
+        <v>1218537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,7 +1609,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1624,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746117</v>
+        <v>711815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1639,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470107</v>
+        <v>1599602</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1653,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1623,46 +1662,46 @@
         <v>116</v>
       </c>
       <c r="D16" s="7">
-        <v>103007</v>
+        <v>93402</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
       </c>
       <c r="I16" s="7">
-        <v>91157</v>
+        <v>81163</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>261</v>
       </c>
       <c r="N16" s="7">
-        <v>194164</v>
+        <v>174566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,46 +1713,46 @@
         <v>547</v>
       </c>
       <c r="D17" s="7">
-        <v>497150</v>
+        <v>467832</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>855</v>
       </c>
       <c r="I17" s="7">
-        <v>504608</v>
+        <v>465531</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1402</v>
       </c>
       <c r="N17" s="7">
-        <v>1001758</v>
+        <v>933362</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1764,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1779,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>595765</v>
+        <v>546694</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1794,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1195922</v>
+        <v>1107928</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,55 +1808,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7">
-        <v>109565</v>
+        <v>46267</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="7">
+        <v>158</v>
+      </c>
+      <c r="I19" s="7">
+        <v>79196</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>231</v>
+      </c>
+      <c r="N19" s="7">
+        <v>125463</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>410</v>
-      </c>
-      <c r="I19" s="7">
-        <v>222772</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M19" s="7">
-        <v>575</v>
-      </c>
-      <c r="N19" s="7">
-        <v>332337</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1865,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>862</v>
+        <v>497</v>
       </c>
       <c r="D20" s="7">
-        <v>587229</v>
+        <v>321898</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="7">
+        <v>669</v>
+      </c>
+      <c r="I20" s="7">
+        <v>529172</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1166</v>
+      </c>
+      <c r="N20" s="7">
+        <v>851070</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1295</v>
-      </c>
-      <c r="I20" s="7">
-        <v>801573</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2157</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1388802</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>696794</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1024345</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1721139</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1963,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>460</v>
+        <v>92</v>
       </c>
       <c r="D22" s="7">
-        <v>451852</v>
+        <v>53223</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="7">
+        <v>252</v>
+      </c>
+      <c r="I22" s="7">
+        <v>118815</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>344</v>
+      </c>
+      <c r="N22" s="7">
+        <v>172038</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>783</v>
-      </c>
-      <c r="I22" s="7">
-        <v>497620</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1243</v>
-      </c>
-      <c r="N22" s="7">
-        <v>949472</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2020,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2914</v>
+        <v>365</v>
       </c>
       <c r="D23" s="7">
-        <v>2931242</v>
+        <v>228669</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="7">
+        <v>626</v>
+      </c>
+      <c r="I23" s="7">
+        <v>305141</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>991</v>
+      </c>
+      <c r="N23" s="7">
+        <v>533809</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>4572</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3303869</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="7">
-        <v>7486</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6235112</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2071,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281892</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>423956</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705847</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>460</v>
+      </c>
+      <c r="D25" s="7">
+        <v>609334</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>783</v>
+      </c>
+      <c r="I25" s="7">
+        <v>440490</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1243</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1049824</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2914</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2848590</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4572</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3215843</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7486</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6064433</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383094</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3457924</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5355</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801489</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3656333</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8729</v>
       </c>
-      <c r="N24" s="7">
-        <v>7184584</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7114257</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
